--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฏ(1).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฏ(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE328DB9-ECAC-2648-87DE-0914E0735636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EE328DB9-ECAC-2648-87DE-0914E0735636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4452526A-2453-4C27-8937-B363EC6A549A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="2805" windowWidth="21525" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,10 @@
     <t>ฏ</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๑๕ เรียกว่า ฏอ ปฏัก เป็นอักษรกลาง ใช้เป็นพยัญชนะตัวสะกดในมาตรากดหรือแม่กด เช่น ปรากฏ นาฏ.</t>
-  </si>
-  <si>
     <t>related_word</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๑๕ เรียกว่า ฏอ ปฏัก เป็นอักษรกลาง ใช้เป็นพยัญชนะตัวสะกดในมาตรากดหรือแม่กด เช่น ปรากฏ นาฏ.</t>
   </si>
 </sst>
 </file>
@@ -416,19 +416,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,16 +439,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2"/>
     </row>
